--- a/tests/mode1/randomPanel2/Mild_vs_moderate-severe/MergedResult/SavedModel_summary.xlsx
+++ b/tests/mode1/randomPanel2/Mild_vs_moderate-severe/MergedResult/SavedModel_summary.xlsx
@@ -999,57 +999,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Compound_22</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
     </row>
@@ -1076,57 +1076,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
